--- a/Output_testing/R1_201907/Country/HKD/MN/CONGO DEM REP_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/CONGO DEM REP_201907_HKD_MN.xlsx
@@ -810,136 +810,471 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>118.871299</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>45.01937641266775</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>267.77972</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>71.59004582815723</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>195.233556</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>65.35941994539529</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>180.411409</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>85.57844746520739</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>109.6308415883426</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>77.945441</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>29.51978465407689</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>54.80958</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>14.65316471322791</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>64.565178</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>21.61484259781243</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>16.927394</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>8.02953707961932</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-54.6972119589083</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>13.323136</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.045787163318241</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5.602225</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.497736813264456</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>12.815626</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>4.290358167717472</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2.906865</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.378876175679943</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-29.52642808949565</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D21" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>12.17934</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.256107328653225</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>11.030805</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>3.692843746239843</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.6921</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.277002046035153</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-55.1637246035751</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>0.436403507430014</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>12.476749</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.725240359637829</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0.832875</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0.2226664491961022</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>0.7566079999999999</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.2532938549049716</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>0.730344</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>0.3464398730765936</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>10.95051962671341</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.669368</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>0.317515807566754</v>
+      </c>
+      <c r="K24" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.018495</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.521899235049356</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0.834179</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.2230150693969146</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.08851632774983745</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.6503640000000001</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.3085012290284931</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>145.9726555851818</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>3.752881</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.421304922149029</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.868287</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.2321337333611117</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>0.955825</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3199868344830407</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.547911</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.2599024806081374</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-4.997624554820767</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.05185030228285396</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0.595341</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.1591624992115943</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>0.6427040000000001</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2151615813246025</v>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.2239731901007689</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>78.11976581008284</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>33.5181</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.69409835032962</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>30.544477</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>8.165967565531455</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>12.442895</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>4.165576944372511</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>3.886149</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>1.843401145647437</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-49.42336254328003</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1306,591 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>3.743837</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>95.15787006877642</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0.868287</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>79.8573160255974</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>0.955825</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>76.54174571155615</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>0.547911</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>68.59854692689939</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-4.997624554820767</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>19.65827215721909</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>20.0846757951669</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>31.40145307310062</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.336894114214241</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0.4844118171835136</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.056274889630779</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.317303603646168</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>2.759647544710769</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.7013877539401114</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>017</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>MEAT AND EDIBLE MEAT OFFAL, PREPARED OR PRESERVED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1922,475 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>118.871299</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>45.70032444492176</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>267.77972</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>71.7987544820174</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>195.233556</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>65.63380555653954</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>180.411409</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>85.90391559474105</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>109.6308415883426</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>77.945441</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>29.96629104475847</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>54.80958</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>14.69588353323579</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>64.565178</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>21.70558394467478</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>16.927394</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>8.060074656447732</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-54.6972119589083</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>13.323136</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.122108052540228</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5.602225</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.502103211281347</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>12.815626</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>4.308369535456971</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2.906865</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.384120255971766</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-29.52642808949565</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>WORN CLOTHING AND OTHER WORN TEXTILE ARTICLES; RAGS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D47" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>12.17934</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.265599958103675</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>11.030805</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>3.7083466865814</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.6921</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.281858683186729</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-55.1637246035751</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G48" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H48" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>0.4380632177600352</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>12.476749</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>4.796712765104495</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0.832875</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0.2233155955171297</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>0.7566079999999999</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.2543572087296421</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>0.730344</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>0.3477574377301468</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>10.95051962671341</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.669368</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>0.3187233695060861</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>TELEVISION RECEIVERS (INCLUDING VIDEO MONITORS AND VIDEO PROJECTORS)</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>4.018495</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.544918973925707</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.834179</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.2236652320610941</v>
+      </c>
+      <c r="G51" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.08888792845722093</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.6503640000000001</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.3096745071253125</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>145.9726555851818</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.05263457261542459</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.595341</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.1596265105217032</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>0.6427040000000001</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.2160648519172093</v>
+      </c>
+      <c r="I52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.2248249949348941</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>78.11976581008284</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.141721</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.4389370736630086</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1.039174</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.2786297591546363</v>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.09081559011934422</v>
+      </c>
+      <c r="I53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.2125454163231402</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>307.7963841002732</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>32.196656</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.3780730724709</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>29.286292</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.85242171810722</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>11.879818</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>3.993768697523895</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>3.188961</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>1.518441866273108</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-57.67011836184939</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2422,549 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>7.816942</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>44.86760600244286</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>4.37408</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>60.19237538658514</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>5.727218</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>86.18785045871049</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.599848</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>87.09011238296164</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>96.51215876691992</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1.020768</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>5.858994021434672</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.540262788444046</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>6.066117575497277</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>8.70968790103573</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-20.73598273297076</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>2.108574891323609</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>2.473700281938488</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.688493228275202</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.173512849657361</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.8374538856017892</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>116.8256721595837</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>001</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>LIVE ANIMALS OTHER THAN ANIMALS OF DIVISION 03</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.3572445334239455</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.5282134451841607</v>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.7838568369232748</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-33.33333333333334</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1786222667119727</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.1912524766631521</v>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.1218502639788076</v>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.4703141021539649</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>671.0049423393739</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>7.425058</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>42.61827411400601</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>2.41563</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>33.24184920145417</v>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>4.66513299165498</v>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.257322415316926</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>ORGANO-INORGANIC COMPOUNDS, HETEROCYCLIC COMPOUNDS, NUCLEIC ACIDS AND THEIR SALTS AND SULPHONAMIDES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>3.42966414259635</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.7161027759819476</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.635138</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>3.645558780042061</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
